--- a/src/processing/data.xlsx
+++ b/src/processing/data.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4775AC7-B71B-4EA8-A4F1-EBD6FAE20EFA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Duration of sleep</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t>Mbed</t>
+  </si>
+  <si>
+    <t>Time elapsed</t>
+  </si>
+  <si>
+    <t>Sleep Data</t>
   </si>
 </sst>
 </file>
@@ -408,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +528,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -533,41 +542,48 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A21"/>
+  <mergeCells count="3">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
